--- a/biology/Botanique/Paeonia_emodi/Paeonia_emodi.xlsx
+++ b/biology/Botanique/Paeonia_emodi/Paeonia_emodi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pivoine de l’Himalaya (Paeonia emodi) est une plante herbacée, pérenne, de la famille des Paeoniaceae, originaire de l’Himalaya. C’est une plante médicinale très prisée en Inde et au Pakistan par la médecine Yunâni.
 Étymologie : le terme emodi vient du vocable latin Emodi Montes utilisé par les géographes de l’Antiquité pour désigner les montagnes séparant l’Inde de la « Scythie asiatique », ce qui correspond à l'actuel massif de l’Himalaya.
@@ -514,7 +526,9 @@
           <t>Description[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La pivoine de l’Himalaya est une plante herbacée, pérenne de 50 à 70 cm de haut, à racines tubéreuses rouges.
 Les feuilles sont biternées ou ternées et glabres. Les segments sont elliptiques-lancéolés ou lancéolés, acuminés. Il peut y avoir jusqu’à 15 folioles et segments par feuille. Le pétiole des feuilles inférieures fait 5-8 cm de long, celui des feuilles supérieures de 2-3 cm.
@@ -554,7 +568,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La pivoine de l’Himalaya affectionne les clairières des forêts himalayennes entre 1600 et 3200 m d’altitude.
 Elle est largement distribuée dans l’ouest et le nord-ouest de l’Himalaya (Pakistan, Inde, Afghanistan, Tibet).
@@ -586,12 +602,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a donné des plantes cultivées ornementales comme l’hybride de Saunder dénommée « White Innocence ».
 La racine tubéreuse est connue sous le nom de Ood Saleeb en médecine Unani (médecine d’origine gréco-arabe pratiquées en Inde).
-C’est une matière médicale utilisée dans les troubles neuro-psychologiques (épilepsie, hystérie, paralysie, convulsions) et les maladies du foie et de la rate[2].
-Il a été isolé d’un extrait au méthanol du fruit un oligostilbène, le paeoninol et un galactoside de monoterpène, la paeonine C[3]. Ces composés ont révélé une activité inhibitrice de l’enzyme lipoxygénase.
+C’est une matière médicale utilisée dans les troubles neuro-psychologiques (épilepsie, hystérie, paralysie, convulsions) et les maladies du foie et de la rate.
+Il a été isolé d’un extrait au méthanol du fruit un oligostilbène, le paeoninol et un galactoside de monoterpène, la paeonine C. Ces composés ont révélé une activité inhibitrice de l’enzyme lipoxygénase.
 </t>
         </is>
       </c>
